--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -2,11 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="customer_info" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="admin_info" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -84,11 +86,21 @@
   <si>
     <t>admin123!</t>
   </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -346,13 +358,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.5"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="24.5"/>
+    <col min="2" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -362,6 +375,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -370,6 +386,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -378,6 +397,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -385,6 +407,9 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -1449,13 +1474,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.63"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="23.63"/>
+    <col min="2" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">

--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>veli</t>
+  </si>
+  <si>
+    <t>ahmet</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>kate</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>pam</t>
   </si>
 </sst>
 </file>
@@ -358,7 +385,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +405,9 @@
       <c r="C1" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -389,6 +419,9 @@
       <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -400,6 +433,9 @@
       <c r="C3" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -411,6 +447,9 @@
       <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -419,6 +458,9 @@
       <c r="B5" s="2">
         <v>12345.0</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -427,6 +469,9 @@
       <c r="B6" s="2">
         <v>12346.0</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -435,6 +480,9 @@
       <c r="B7" s="2">
         <v>12347.0</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -443,6 +491,9 @@
       <c r="B8" s="2">
         <v>12348.0</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -451,6 +502,9 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -459,6 +513,9 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -467,6 +524,9 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D11" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -474,6 +534,9 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
